--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2660672.71365273</v>
+        <v>-2663428.055731779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12134429.06144738</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>305.6946365487795</v>
+        <v>1.556796760744578</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>220.7628638495562</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>124.3749919853901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>19.46953578245422</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.45429952195757</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1111,7 +1111,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>140.2009832388915</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>79.21847570891687</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.1643949899714</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>129.9830617929064</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892427576</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892427576</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892427576</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I25" t="n">
         <v>56.98118882652582</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317882</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360.5823164832031</v>
+        <v>148.564445544634</v>
       </c>
       <c r="C2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="D2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="E2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="F2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4358,22 +4358,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397901</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.787246784216</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1137.321488523137</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>747.1821565473249</v>
+        <v>535.1642856087558</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4416,10 +4416,10 @@
         <v>408.1293476730608</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447924</v>
+        <v>672.0688791685486</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278125</v>
+        <v>1313.092088788443</v>
       </c>
       <c r="O3" t="n">
         <v>1829.130999113547</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1622.52155311729</v>
+        <v>1229.177967410547</v>
       </c>
       <c r="C5" t="n">
-        <v>1622.52155311729</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.25585451054</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>878.4676019122953</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>467.4816971226878</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
         <v>51.79985532281972</v>
@@ -4565,25 +4565,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104779</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645555</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507461</v>
@@ -4598,19 +4598,19 @@
         <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>1989.243565735749</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.752698217159</v>
+        <v>1615.777807474669</v>
       </c>
       <c r="Y5" t="n">
-        <v>2009.121393181412</v>
+        <v>1615.777807474669</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258286</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421431</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344685</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
         <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>1855.373690073468</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.6898028207301</v>
+        <v>71.46605308287448</v>
       </c>
       <c r="C7" t="n">
-        <v>198.6898028207301</v>
+        <v>71.46605308287448</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>71.46605308287448</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>71.46605308287448</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>71.46605308287448</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4723,16 +4723,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4744,31 +4744,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1599.050034273112</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1402.600368279081</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T7" t="n">
-        <v>1179.665793821062</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>890.5480168314605</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V7" t="n">
-        <v>890.5480168314605</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W7" t="n">
-        <v>601.1308467944999</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="X7" t="n">
-        <v>601.1308467944999</v>
+        <v>292.2586322264046</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.3382676509698</v>
+        <v>71.46605308287448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.530453193509</v>
+        <v>1294.668437559719</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.530453193509</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952645</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>432.756295805657</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>421.114858046193</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4802,19 +4802,19 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477397</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4841,13 +4841,13 @@
         <v>2134.752698217159</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.1355434304</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.66978516932</v>
+        <v>1761.28693995608</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.530453193509</v>
+        <v>1681.26827762384</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258286</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421431</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344685</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
         <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
         <v>2212.152044033533</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8526776630624</v>
+        <v>348.360484472331</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351555</v>
+        <v>348.360484472331</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>348.360484472331</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4960,16 +4960,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159846</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1227.599429701827</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U10" t="n">
-        <v>938.4816527122257</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V10" t="n">
-        <v>683.7971645063388</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="W10" t="n">
-        <v>683.7971645063388</v>
+        <v>515.1932066844233</v>
       </c>
       <c r="X10" t="n">
-        <v>552.501142493302</v>
+        <v>515.1932066844233</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.501142493302</v>
+        <v>515.1932066844233</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,40 +5103,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637291</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438234</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998428</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237714</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732781</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121584</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5264,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,40 +5340,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438234</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998428</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237714</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732781</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121584</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.012762333092</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.19258031117</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075952</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.6115533324</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355945</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068016</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5577,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438234</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998428</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237714</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732781</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121584</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,25 +5774,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438171</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,7 +6403,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931273</v>
@@ -6412,22 +6412,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,19 +6634,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,10 +6853,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,55 +7090,55 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7312,31 +7312,31 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>245.454143107317</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945059</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>280.0343015895405</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.485034317738609e-12</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>166.1321840381065</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5176649421949</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>274.5176649421945</v>
       </c>
       <c r="P9" t="n">
-        <v>274.5176649421949</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77635683940025e-11</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>59.57825522222805</v>
+        <v>363.716095010263</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>139.8771856380273</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>128.2318582209319</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>117.1955049559054</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393659</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393659</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393659</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393025</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1145465.016432608</v>
+        <v>1145465.016432607</v>
       </c>
     </row>
     <row r="3">
@@ -26366,31 +26366,31 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898921</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457484</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="J3" t="n">
         <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>7.673861546209082e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53783.70994333913</v>
+        <v>53783.70994333889</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,10 +26424,10 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169537</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695358</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26436,19 +26436,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="J4" t="n">
         <v>14278.33979478851</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>14278.33979478853</v>
+      </c>
+      <c r="L4" t="n">
         <v>14278.33979478852</v>
       </c>
-      <c r="K4" t="n">
-        <v>14278.33979478851</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14278.33979478851</v>
-      </c>
       <c r="M4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="N4" t="n">
         <v>14278.33979478852</v>
@@ -26457,7 +26457,7 @@
         <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1082811.720715729</v>
+        <v>-1083276.017507753</v>
       </c>
       <c r="C6" t="n">
-        <v>-395312.2038766497</v>
+        <v>-395312.2038766498</v>
       </c>
       <c r="D6" t="n">
         <v>-222547.8440867576</v>
       </c>
       <c r="E6" t="n">
-        <v>-608298.8781013509</v>
+        <v>-608333.6160267887</v>
       </c>
       <c r="F6" t="n">
-        <v>-107410.0103556024</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="G6" t="n">
-        <v>-107410.0103556021</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="H6" t="n">
-        <v>-107410.0103556048</v>
+        <v>-107444.7482810379</v>
       </c>
       <c r="I6" t="n">
         <v>-136870.1736423357</v>
@@ -26546,7 +26546,7 @@
         <v>-286856.4724747519</v>
       </c>
       <c r="K6" t="n">
-        <v>-117442.4556487039</v>
+        <v>-117442.455648704</v>
       </c>
       <c r="L6" t="n">
         <v>-117442.4556487039</v>
@@ -26555,7 +26555,7 @@
         <v>-248326.9125529392</v>
       </c>
       <c r="N6" t="n">
-        <v>-136870.1736423357</v>
+        <v>-136870.1736423356</v>
       </c>
       <c r="O6" t="n">
         <v>-117442.4556487039</v>
@@ -26698,28 +26698,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
@@ -26738,19 +26738,19 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26796,16 +26796,16 @@
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26920,34 +26920,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>9.592326932761353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522334</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918263</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>242.0531844342345</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>180.3655872285793</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>128.4781048678568</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>261.8629466706635</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>146.8268910682753</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.64584909858687</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>209.0399854785215</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>307.0194629471367</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.66758519196588</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>95.72659359613073</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31434,28 +31434,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948409</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485282</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622724</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622724</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485282</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34784,13 +34784,13 @@
         <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>512.0597304764965</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>521.251424570812</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962126</v>
+        <v>21.71629760962034</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171349</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.546958993144</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025565</v>
+        <v>504.4439827406631</v>
       </c>
       <c r="P6" t="n">
-        <v>526.514359755345</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225499</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35106,13 +35106,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171349</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.546958993144</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>612.8294636447512</v>
       </c>
       <c r="P9" t="n">
-        <v>526.514359755345</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225499</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978357</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927282257</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924885</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.133804440254</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.133804440254</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36519,7 +36519,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36990,16 +36990,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
